--- a/bom/ember-pcb.sch.xlsx
+++ b/bom/ember-pcb.sch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/ember-pcb/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523BDCF2-ED6F-9749-B29D-36B48D6E90EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5EF63C-2CE3-6A4C-AD3B-556E35655096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="940" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="ember-pcb.sch" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
   <si>
     <t>Source:</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Friday, December 16, 2022 at 06:05:37 PM</t>
+    <t>Tuesday, March 14, 2023 at 11:31:51 AM</t>
   </si>
   <si>
     <t>Tool:</t>
@@ -85,7 +85,7 @@
     <t>Polarized capacitor</t>
   </si>
   <si>
-    <t xml:space="preserve">C2, C5, C7, C10, </t>
+    <t xml:space="preserve">C2, C5, C7, C10, C14, </t>
   </si>
   <si>
     <t>100nF</t>
@@ -109,7 +109,22 @@
     <t>Capacitor_Tantalum_SMD:CP_EIA-3528-12_Kemet-T</t>
   </si>
   <si>
-    <t xml:space="preserve">D1, </t>
+    <t xml:space="preserve">C11, C12, </t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13, </t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, D2, </t>
   </si>
   <si>
     <t>LED</t>
@@ -133,6 +148,18 @@
     <t>Ferrite bead</t>
   </si>
   <si>
+    <t xml:space="preserve">FID1, FID2, FID3, </t>
+  </si>
+  <si>
+    <t>Fiducial</t>
+  </si>
+  <si>
+    <t>Fiducial:Fiducial_1mm_Mask3mm</t>
+  </si>
+  <si>
+    <t>Fiducial Marker</t>
+  </si>
+  <si>
     <t xml:space="preserve">H1, H2, </t>
   </si>
   <si>
@@ -157,6 +184,12 @@
     <t>Mounting Hole without connection</t>
   </si>
   <si>
+    <t xml:space="preserve">H5, H6, </t>
+  </si>
+  <si>
+    <t>MountingHole:MountingHole_3mm_Pad</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1, </t>
   </si>
   <si>
@@ -169,7 +202,19 @@
     <t>Connector array, 10x40, 1.27mm pitch, male pins, gold finish, VITA 57.1 FMC, SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">J2, J5, </t>
+    <t xml:space="preserve">J2, </t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3, J6, J8, J9, </t>
   </si>
   <si>
     <t>Conn_Coaxial_Power</t>
@@ -181,7 +226,7 @@
     <t>coaxial connector (BNC, SMA, SMB, SMC, Cinch/RCA, LEMO, ...)</t>
   </si>
   <si>
-    <t xml:space="preserve">J3, </t>
+    <t xml:space="preserve">J4, </t>
   </si>
   <si>
     <t>Conn_02x12_Odd_Even</t>
@@ -193,7 +238,7 @@
     <t>Generic connector, double row, 02x12, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t xml:space="preserve">J4, </t>
+    <t xml:space="preserve">J5, </t>
   </si>
   <si>
     <t>Conn_01x07</t>
@@ -205,7 +250,19 @@
     <t>Generic connector, single row, 01x07, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, </t>
+    <t xml:space="preserve">J7, </t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_Micro-B_Molex-105017-0001</t>
+  </si>
+  <si>
+    <t>USB Micro Type B connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R5, </t>
   </si>
   <si>
     <t>1k</t>
@@ -226,7 +283,31 @@
     <t>100k</t>
   </si>
   <si>
-    <t xml:space="preserve">SW1, SW2, </t>
+    <t xml:space="preserve">R4, </t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, </t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, </t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8, </t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1, SW3, </t>
   </si>
   <si>
     <t>SW_SP3T</t>
@@ -238,16 +319,16 @@
     <t>Switch, three position, single pole triple throw, 3 position switch, SP3T</t>
   </si>
   <si>
-    <t xml:space="preserve">SW3, </t>
-  </si>
-  <si>
-    <t>SW_DIP_x02</t>
-  </si>
-  <si>
-    <t>Button_Switch_SMD:SW_DIP_SPSTx02_Slide_Omron_A6S-210x_W8.9mm_P2.54mm</t>
-  </si>
-  <si>
-    <t>2x DIP Switch, Single Pole Single Throw (SPST) switch, small symbol</t>
+    <t xml:space="preserve">SW2, </t>
+  </si>
+  <si>
+    <t>SW_DIP_x03</t>
+  </si>
+  <si>
+    <t>Button_Switch_SMD:SW_DIP_SPSTx03_Slide_Omron_A6S-310x_W8.9mm_P2.54mm</t>
+  </si>
+  <si>
+    <t>3x DIP Switch, Single Pole Single Throw (SPST) switch, small symbol</t>
   </si>
   <si>
     <t xml:space="preserve">TP1, </t>
@@ -280,38 +361,56 @@
     <t xml:space="preserve">U2, </t>
   </si>
   <si>
-    <t>LP5912-0.9DRV</t>
-  </si>
-  <si>
-    <t>Package_SON:WSON-6-1EP_2x2mm_P0.65mm_EP1x1.6mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>500-mA Ultra-Low-Noise Low-IQ LDO, 0.9V, WSON-6</t>
+    <t>TLV71209_SOT23-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>300mA Low Dropout Voltage Regulator, Fixed Output 0.9V, SOT-23-5</t>
   </si>
   <si>
     <t xml:space="preserve">U3, </t>
   </si>
   <si>
-    <t>LP5912-1.1DRV</t>
-  </si>
-  <si>
-    <t>500-mA Ultra-Low-Noise Low-IQ LDO, 1.1V, WSON-6</t>
+    <t>TLV71211_SOT23-5</t>
+  </si>
+  <si>
+    <t>300mA Low Dropout Voltage Regulator, Fixed Output 1.1V, SOT-23-5</t>
   </si>
   <si>
     <t xml:space="preserve">U4, </t>
   </si>
   <si>
-    <t>LP5912-2.5DRV</t>
-  </si>
-  <si>
-    <t>500-mA Ultra-Low-Noise Low-IQ LDO, 2.5V, WSON-6</t>
+    <t>FT4222HQ</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:VQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm</t>
+  </si>
+  <si>
+    <t>USB 2.0 to Quad SPI or I2C Bridge, VQFN-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1, </t>
+  </si>
+  <si>
+    <t>12MHz</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_0603-2Pin_6.0x3.5mm</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,22 +545,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +724,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -802,10 +905,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,7 +969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1153,7 +1257,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,16 +1265,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1210,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1236,401 +1341,621 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17">
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18">
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19">
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21">
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22">
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23">
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24">
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25">
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26">
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
